--- a/src/main/resources/jxls/template/outOrderInfo.xlsx
+++ b/src/main/resources/jxls/template/outOrderInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11560"/>
+    <workbookView windowWidth="28800" windowHeight="12160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>订单详情信息</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>厚</t>
-  </si>
-  <si>
-    <t>备注</t>
   </si>
   <si>
     <t>颜色</t>
@@ -168,11 +165,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -197,40 +194,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,9 +210,82 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,59 +301,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,15 +332,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,19 +353,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,13 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,139 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,8 +552,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -573,32 +572,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +600,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -646,148 +643,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19" customHeight="1" outlineLevelRow="6"/>
@@ -1156,18 +1153,15 @@
     <col min="4" max="4" width="17.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="21" style="5" customWidth="1"/>
     <col min="6" max="6" width="18.8333333333333" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.8333333333333" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0.166666666666667" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.8333333333333" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="15.6666666666667" customWidth="1"/>
-    <col min="13" max="14" width="19.4416666666667" customWidth="1"/>
-    <col min="15" max="15" width="20.4166666666667" customWidth="1"/>
-    <col min="16" max="16" width="20.5333333333333" customWidth="1"/>
+    <col min="7" max="7" width="18.8333333333333" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="15.6666666666667" customWidth="1"/>
+    <col min="10" max="11" width="19.4416666666667" customWidth="1"/>
+    <col min="12" max="12" width="20.4166666666667" customWidth="1"/>
+    <col min="13" max="13" width="20.5333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="32" customHeight="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="32" customHeight="1" spans="1:13">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1183,11 +1177,8 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
     </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:16">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:13">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1209,106 +1200,101 @@
       <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J2" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="7" t="s">
+    </row>
+    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="10" t="s">
+    <row r="4" customHeight="1" spans="12:13">
+      <c r="L4" t="s">
         <v>27</v>
       </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="15:16">
-      <c r="O4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" t="s">
+    <row r="5" customHeight="1" spans="12:13">
+      <c r="L5" t="s">
         <v>29</v>
       </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="15:16">
-      <c r="O5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" t="s">
+    <row r="6" customHeight="1" spans="12:13">
+      <c r="L6" t="s">
         <v>31</v>
       </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" customHeight="1" spans="15:16">
-      <c r="O6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" t="s">
+    <row r="7" customHeight="1" spans="12:13">
+      <c r="L7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="15:16">
-      <c r="O7" t="s">
+      <c r="M7" t="s">
         <v>34</v>
-      </c>
-      <c r="P7" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
